--- a/Python/godsbehaviour.xlsx
+++ b/Python/godsbehaviour.xlsx
@@ -8,31 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Projects/IRTMBible/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C23B830-56FD-EC4F-B462-34C2D851EA3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6337E9-0FA5-1D43-97E9-E5DDB7439D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$E$1:$F$150</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1:$A$150</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$150</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$F$3:$F$23</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$3:$A$23</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$F$3:$F$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$1:$C$150</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$1:$A$150</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$150</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$1:$C$150</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$3:$A$23</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$E$3:$E$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$F$3:$F$23</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$3:$A$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$150</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1012,7 +997,7 @@
             <c:strRef>
               <c:f>Sheet2!$A$1:$A$150</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>have</c:v>
                 </c:pt>
@@ -1035,7 +1020,433 @@
                   <c:v>make</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>saw</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>command</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bring</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>send</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>create</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hear</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>answer</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bless</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>speak</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>deliver</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>live</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>take</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>allot</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>choose</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>detest</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fell</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>hand</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>provide</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>tell</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>appear</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>destroy</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>know</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>lead</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>listen</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>look</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>meet</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>open</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>place</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>put</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>redeem</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>remain</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>remember</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>set</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>strike</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>accord</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>ask</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>assail</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>banish</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>become</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>begin</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>break</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>care</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>carry</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>cause</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>change</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>charge</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>confront</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>correct</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>cry</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>deny</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>despise</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>direct</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>discipline</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>disperse</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>drag</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>draw</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>dry</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>enlarge</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>extend</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>favor</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>forget</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>form</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>get</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>grant</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>hat</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>heal</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>help</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>hurry</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>instruct</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>intend</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>intercede</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>keep</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>leave</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>let</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>love</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>move</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>multiply</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>neglect</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>overthrow</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>pervert</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>preside</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>produce</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>promise</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>pronounce</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>raise</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>refute</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>reign</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>repay</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>reply</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>require</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>restore</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>return</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>reveal</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>rout</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>scatter</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>shin</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>slew</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>spread</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>stand</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>subdue</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>turn</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>understand</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>visit</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>watch</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>weigh</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>'made</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>anoint</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>appoint</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>ascend</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>belong</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>clothe</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>continue</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>credit</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>demonstrate</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>descend</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>desire</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>destine</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>drive</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>enter</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>exalt</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>feed</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>find</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>foreknow</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>forgive</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>fulfil</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>oppose</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>overcome</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>overlook</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>prepare</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>present</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>reject</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>rescue</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>rest</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>show</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>swear</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>use</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>wait</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>want</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>work</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,7 +1456,7 @@
               <c:f>Sheet2!$E$1:$E$150</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>0.24814264487369986</c:v>
                 </c:pt>
@@ -1068,7 +1479,433 @@
                   <c:v>2.3774145616641901E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.4858841010401188E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3372956909361069E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.188707280832095E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.188707280832095E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9153046062407128E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9153046062407128E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9153046062407128E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9153046062407128E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.429420505200594E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.429420505200594E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.429420505200594E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.9435364041604752E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9435364041604752E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.9435364041604752E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4576523031203564E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.9717682020802376E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4858841010401188E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1938,7 @@
             <c:strRef>
               <c:f>Sheet2!$A$1:$A$150</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>have</c:v>
                 </c:pt>
@@ -1124,7 +1961,433 @@
                   <c:v>make</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>saw</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>command</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bring</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>send</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>call</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>create</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>go</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>hear</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>answer</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>bless</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>speak</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>deliver</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>live</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>take</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>allot</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>choose</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>detest</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>fell</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>hand</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>provide</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>tell</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>appear</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>destroy</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>know</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>lead</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>listen</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>look</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>meet</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>open</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>place</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>put</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>redeem</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>remain</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>remember</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>set</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>strike</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>test</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>accord</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>ask</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>assail</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>banish</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>become</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>begin</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>break</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>care</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>carry</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>cause</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>change</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>charge</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>confront</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>control</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>correct</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>cry</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>deny</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>despise</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>direct</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>discipline</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>disperse</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>drag</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>draw</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>dry</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>enlarge</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>extend</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>favor</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>forget</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>form</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>get</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>grant</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>hat</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>heal</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>help</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>hurry</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>instruct</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>intend</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>intercede</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>keep</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>leave</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>let</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>love</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>move</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>multiply</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>neglect</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>overthrow</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>pervert</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>preside</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>produce</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>promise</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>pronounce</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>raise</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>refute</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>reign</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>repay</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>reply</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>require</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>restore</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>return</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>reveal</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>rout</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>scatter</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>shin</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>slew</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>spread</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>stand</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>subdue</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>turn</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>understand</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>visit</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>watch</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>weigh</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>'made</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>anoint</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>appoint</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>ascend</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>belong</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>clothe</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>continue</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>credit</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>demonstrate</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>descend</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>desire</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>destine</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>drive</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>enter</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>exalt</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>feed</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>find</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>foreknow</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>forgive</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>fulfil</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>oppose</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>overcome</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>overlook</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>prepare</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>present</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>reject</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>rescue</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>rest</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>show</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>swear</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>use</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>wait</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>want</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>work</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1134,7 +2397,7 @@
               <c:f>Sheet2!$F$1:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="150"/>
                 <c:pt idx="0">
                   <c:v>0.25245901639344265</c:v>
                 </c:pt>
@@ -1157,7 +2420,433 @@
                   <c:v>2.2950819672131147E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.2950819672131147E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8360655737704927E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3114754098360656E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9672131147540985E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3114754098360656E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3114754098360656E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.9344262295081971E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.2786885245901639E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.5573770491803279E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.5573770491803279E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,11 +6010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28D55F8-8A64-2148-9A27-5D990E54D0C6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O154" sqref="O154"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4463,7 +6151,7 @@
         <v>2.2950819672131147E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4480,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4497,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -4535,7 +6223,7 @@
         <v>2.2950819672131147E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4554,7 +6242,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4573,7 +6261,7 @@
         <v>9.8360655737704927E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4590,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +6297,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4626,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -4643,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4662,7 +6350,7 @@
         <v>1.3114754098360656E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -4679,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4698,7 +6386,7 @@
         <v>1.9672131147540985E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4715,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4732,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4751,7 +6439,7 @@
         <v>1.3114754098360656E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -4768,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -4785,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -4802,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -4821,7 +6509,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -4838,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4857,7 +6545,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4874,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -4893,7 +6581,7 @@
         <v>1.3114754098360656E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -4910,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4929,7 +6617,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4946,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -4963,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4980,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -4999,7 +6687,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5016,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -5033,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5050,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
@@ -5069,7 +6757,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +6774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -5103,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -5122,7 +6810,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -5139,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -5173,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -5190,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5207,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -5224,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -5241,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -5258,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>41</v>
       </c>
@@ -5275,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +6982,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5311,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -5328,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -5345,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>97</v>
       </c>
@@ -5362,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -5379,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -5396,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -5413,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -5430,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -5449,7 +7137,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -5468,7 +7156,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -5485,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -5502,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -5519,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -5536,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -5553,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -5570,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -5587,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -5604,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5621,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5638,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -5655,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -5672,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -5689,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -5706,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>110</v>
       </c>
@@ -5723,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>111</v>
       </c>
@@ -5740,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>34</v>
       </c>
@@ -5759,7 +7447,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -5776,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -5795,7 +7483,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -5814,7 +7502,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -5831,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -5850,7 +7538,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -5867,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>63</v>
       </c>
@@ -5884,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>81</v>
       </c>
@@ -5901,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -5918,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>84</v>
       </c>
@@ -5935,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -5952,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -5969,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -5988,7 +7676,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>65</v>
       </c>
@@ -6024,7 +7712,7 @@
         <v>3.9344262295081971E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -6041,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -6058,7 +7746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>58</v>
       </c>
@@ -6075,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>78</v>
       </c>
@@ -6092,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>64</v>
       </c>
@@ -6111,7 +7799,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -6128,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>68</v>
       </c>
@@ -6145,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>75</v>
       </c>
@@ -6179,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -6196,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>100</v>
       </c>
@@ -6213,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -6230,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -6247,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -6264,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>57</v>
       </c>
@@ -6281,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -6300,7 +7988,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -6317,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -6334,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -6351,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -6368,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -6385,7 +8073,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>126</v>
       </c>
@@ -6402,7 +8090,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>127</v>
       </c>
@@ -6419,7 +8107,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -6436,7 +8124,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6453,7 +8141,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -6470,7 +8158,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -6487,7 +8175,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -6504,7 +8192,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -6521,7 +8209,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -6538,7 +8226,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -6555,7 +8243,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>136</v>
       </c>
@@ -6572,7 +8260,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>125</v>
       </c>
@@ -6589,7 +8277,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -6606,7 +8294,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -6623,7 +8311,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -6640,7 +8328,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -6657,7 +8345,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -6674,7 +8362,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -6691,7 +8379,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -6708,7 +8396,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -6725,7 +8413,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -6742,7 +8430,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>129</v>
       </c>
@@ -6759,7 +8447,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -6776,7 +8464,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>130</v>
       </c>
@@ -6793,7 +8481,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>135</v>
       </c>
@@ -6810,7 +8498,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
@@ -6827,7 +8515,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -6844,7 +8532,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -6861,7 +8549,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>139</v>
       </c>
@@ -6878,7 +8566,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -6895,7 +8583,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -6912,7 +8600,7 @@
         <v>3.2786885245901639E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -6929,7 +8617,7 @@
         <v>6.5573770491803279E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>133</v>
       </c>
@@ -6957,18 +8645,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F150" xr:uid="{5E72F52B-C5D5-E14A-8B64-36DBE3DE45F6}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.01"/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.01"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F150" xr:uid="{176517E4-8321-8A42-9C66-59B741D5D443}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
